--- a/TravelBooking/TestCase.xlsx
+++ b/TravelBooking/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
   <si>
     <t>Keyword</t>
   </si>
@@ -77,10 +77,28 @@
     <t>SignUp</t>
   </si>
   <si>
-    <t>html/body/div[2]/div/div/div[2]/ul[2]/li[2]/ab</t>
-  </si>
-  <si>
-    <t>Fail</t>
+    <t>MOVETOELEMENT</t>
+  </si>
+  <si>
+    <t>Language Switcher</t>
+  </si>
+  <si>
+    <t>LanguageDropdown</t>
+  </si>
+  <si>
+    <t>html/body/div[2]/div/div/div[2]/ul[2]/li[1]/a</t>
+  </si>
+  <si>
+    <t>LanguageDropdownSelection</t>
+  </si>
+  <si>
+    <t>.//*[@id='en']</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>NotExecuted</t>
   </si>
   <si>
     <t>Pass</t>
@@ -90,6 +108,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -106,7 +125,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,12 +140,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+      <patternFill patternType="none">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -161,7 +190,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -175,8 +204,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -472,17 +518,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="4.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" style="2" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -500,22 +546,33 @@
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>21</v>
+      <c r="B2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>22</v>
+      <c r="C4" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -525,21 +582,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="19.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.28515625" style="2" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.42578125" style="2" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" style="2" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="62.140625" style="2" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="2" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="2" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="2" width="19.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="62.140625" collapsed="true"/>
+    <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
@@ -597,7 +654,7 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
@@ -629,24 +686,92 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E7" r:id="rId2"/>
+    <hyperlink ref="E10" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/TravelBooking/TestCase.xlsx
+++ b/TravelBooking/TestCase.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>Keyword</t>
   </si>
   <si>
-    <t>Object</t>
-  </si>
-  <si>
     <t>value</t>
   </si>
   <si>
@@ -44,9 +41,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>Sign Up to Application</t>
   </si>
   <si>
@@ -95,20 +89,52 @@
     <t>.//*[@id='en']</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>NotExecuted</t>
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Date of Execution</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:40:19 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:40:20 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:40:51 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:42:32 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:43:02 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:46:30 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 21:47:08 IST 2017</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -159,7 +185,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -182,6 +208,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -190,7 +229,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -205,18 +244,17 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
@@ -518,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -529,54 +567,68 @@
     <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="12" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>28</v>
+      <c r="C4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -585,7 +637,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -595,33 +647,33 @@
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="27.42578125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="62.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="2" width="31.140625" collapsed="true"/>
     <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -632,50 +684,50 @@
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+    <row r="4" spans="1:6" ht="30">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -686,34 +738,34 @@
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+    <row r="8" spans="1:6" ht="30">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -724,45 +776,45 @@
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/TravelBooking/TestCase.xlsx
+++ b/TravelBooking/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>Keyword</t>
   </si>
@@ -95,37 +95,28 @@
     <t>Pass</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
     <t>Object Name</t>
   </si>
   <si>
-    <t>Date of Execution</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:40:19 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:40:20 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:40:51 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:42:32 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:43:02 IST 2017</t>
-  </si>
-  <si>
     <t>Wed Feb 08 21:46:30 IST 2017</t>
   </si>
   <si>
     <t>Wed Feb 08 21:47:08 IST 2017</t>
+  </si>
+  <si>
+    <t>Timestamp of Execution</t>
+  </si>
+  <si>
+    <t>Thu Feb 09 21:38:06 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 09 21:38:19 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 09 21:38:40 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -133,7 +124,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -151,7 +142,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,11 +163,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="54"/>
       </patternFill>
     </fill>
     <fill>
@@ -229,7 +215,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -247,19 +233,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -559,7 +542,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,7 +550,7 @@
     <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="12" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -580,8 +563,8 @@
       <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>29</v>
+      <c r="D1" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -591,11 +574,11 @@
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>35</v>
+      <c r="C2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -605,11 +588,11 @@
       <c r="B3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>35</v>
+      <c r="C3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -617,13 +600,13 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>36</v>
+      <c r="D4" s="8" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -659,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>

--- a/TravelBooking/TestCase.xlsx
+++ b/TravelBooking/TestCase.xlsx
@@ -15,14 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
   <si>
     <t>Keyword</t>
   </si>
   <si>
-    <t>value</t>
-  </si>
-  <si>
     <t>GOTOURL</t>
   </si>
   <si>
@@ -89,34 +86,64 @@
     <t>.//*[@id='en']</t>
   </si>
   <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Timestamp of Execution</t>
+  </si>
+  <si>
+    <t>Select Currency</t>
+  </si>
+  <si>
+    <t>CurrencySelector</t>
+  </si>
+  <si>
+    <t>.//*[@id='currency']</t>
+  </si>
+  <si>
+    <t>Secondary Argument</t>
+  </si>
+  <si>
+    <t>input value</t>
+  </si>
+  <si>
+    <t>SELECTDROPDOWN</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>selectByVisibleText</t>
+  </si>
+  <si>
     <t>NotExecuted</t>
   </si>
   <si>
+    <t>INRs</t>
+  </si>
+  <si>
+    <t>Tue Feb 14 23:45:05 IST 2017</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Tue Feb 14 23:45:41 IST 2017</t>
+  </si>
+  <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>Object Name</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:46:30 IST 2017</t>
-  </si>
-  <si>
-    <t>Wed Feb 08 21:47:08 IST 2017</t>
-  </si>
-  <si>
-    <t>Timestamp of Execution</t>
-  </si>
-  <si>
-    <t>Thu Feb 09 21:38:06 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 09 21:38:19 IST 2017</t>
-  </si>
-  <si>
-    <t>Thu Feb 09 21:38:40 IST 2017</t>
+    <t>Tue Feb 14 23:49:49 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 14 23:50:02 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 14 23:50:23 IST 2017</t>
+  </si>
+  <si>
+    <t>Tue Feb 14 23:50:33 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -142,7 +169,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,12 +189,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="17"/>
+        <fgColor indexed="10"/>
       </patternFill>
     </fill>
   </fills>
@@ -215,7 +252,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -236,13 +273,15 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -539,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -550,63 +589,77 @@
     <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="4.42578125" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="2" width="12.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="9" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="26.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="7" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="8" t="s">
         <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
+      <c r="B5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -617,10 +670,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1"/>
@@ -631,173 +684,233 @@
     <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="17.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" style="2" width="27.5703125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" style="2" width="31.140625" collapsed="true"/>
-    <col min="7" max="16384" style="2" width="9.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="2" width="25.85546875" collapsed="true"/>
+    <col min="8" max="16384" style="2" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+        <v>10</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30">
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="30">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="45">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="45">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="30">
+      <c r="G7" s="3"/>
+    </row>
+    <row r="8" spans="1:7" ht="30">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1">
       <c r="A9" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="G9" s="3"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="30">
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="30">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -805,8 +918,9 @@
     <hyperlink ref="E3" r:id="rId1"/>
     <hyperlink ref="E7" r:id="rId2"/>
     <hyperlink ref="E10" r:id="rId3"/>
+    <hyperlink ref="E14" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
--- a/TravelBooking/TestCase.xlsx
+++ b/TravelBooking/TestCase.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="77">
   <si>
     <t>Keyword</t>
   </si>
@@ -116,34 +116,136 @@
     <t>selectByVisibleText</t>
   </si>
   <si>
+    <t>INRs</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>NotExecuted</t>
   </si>
   <si>
-    <t>INRs</t>
-  </si>
-  <si>
-    <t>Tue Feb 14 23:45:05 IST 2017</t>
-  </si>
-  <si>
     <t>Fail</t>
   </si>
   <si>
-    <t>Tue Feb 14 23:45:41 IST 2017</t>
+    <t>Wed Feb 15 23:56:50 IST 2017</t>
   </si>
   <si>
     <t>Pass</t>
   </si>
   <si>
-    <t>Tue Feb 14 23:49:49 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 14 23:50:02 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 14 23:50:23 IST 2017</t>
-  </si>
-  <si>
-    <t>Tue Feb 14 23:50:33 IST 2017</t>
+    <t>Wed Feb 15 23:57:19 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:57:20 IST 2017</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:57:33 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 00:00:27 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 00:00:28 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 00:00:53 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:51:38 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:51:39 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:51:40 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:52:19 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:53:50 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 20:54:29 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:13:23 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:13:24 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:13:46 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:21:27 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:21:28 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:21:51 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:25:50 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:26:11 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:32:05 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:32:06 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:32:28 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:35:29 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:35:30 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:35:52 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:39:52 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:39:53 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:40:16 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:50:28 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:50:29 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 21:50:53 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:00:07 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:00:08 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:00:32 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:01:45 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:01:46 IST 2017</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 22:02:09 IST 2017</t>
   </si>
 </sst>
 </file>
@@ -193,13 +295,13 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="none">
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
+      <patternFill patternType="none">
+        <fgColor indexed="54"/>
       </patternFill>
     </fill>
     <fill>
@@ -252,7 +354,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -276,12 +378,56 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +727,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,13 +757,13 @@
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -625,13 +771,13 @@
         <v>8</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>35</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -639,13 +785,13 @@
         <v>18</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>35</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -655,11 +801,11 @@
       <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="61" t="s">
         <v>36</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -904,7 +1050,7 @@
         <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>27</v>
